--- a/data/20230406/20230406_Platelayout_Assay.xlsx
+++ b/data/20230406/20230406_Platelayout_Assay.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Q:\Abteilungsprojekte\umik\006 GROUP ROBINSON\002 Personnel\Niklas Trottmann\DEET Project\Colorimetric assays\230406_Repetion_64DHH_altered_conditions\20230406\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\eawag\userdata\trottmni\My Documents\GitHub\platereader-plotting\data\20230406\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -140,7 +140,7 @@
     <t>stdcurve_5</t>
   </si>
   <si>
-    <t>stdcurve_6</t>
+    <t>stdcurve_0</t>
   </si>
 </sst>
 </file>
@@ -223,7 +223,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -231,9 +231,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -525,7 +522,7 @@
   <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AA29" sqref="AA29"/>
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -582,40 +579,40 @@
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="J2" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="K2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="L2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="M2" s="9" t="s">
+      <c r="M2" s="8" t="s">
         <v>17</v>
       </c>
     </row>
@@ -623,40 +620,40 @@
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="I3" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="J3" s="9" t="s">
+      <c r="J3" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="K3" s="9" t="s">
+      <c r="K3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="9" t="s">
+      <c r="L3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="M3" s="9" t="s">
+      <c r="M3" s="8" t="s">
         <v>11</v>
       </c>
     </row>
@@ -664,40 +661,40 @@
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="H4" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="I4" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="9" t="s">
+      <c r="J4" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="K4" s="9" t="s">
+      <c r="K4" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="L4" s="9" t="s">
+      <c r="L4" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="M4" s="9" t="s">
+      <c r="M4" s="8" t="s">
         <v>20</v>
       </c>
     </row>
@@ -705,40 +702,40 @@
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="H5" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="I5" s="9" t="s">
+      <c r="I5" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="9" t="s">
+      <c r="J5" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="K5" s="9" t="s">
+      <c r="K5" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="L5" s="9" t="s">
+      <c r="L5" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="M5" s="9" t="s">
+      <c r="M5" s="8" t="s">
         <v>16</v>
       </c>
     </row>
@@ -746,40 +743,40 @@
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="G6" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="9" t="s">
+      <c r="H6" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="I6" s="9" t="s">
+      <c r="I6" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="J6" s="9" t="s">
+      <c r="J6" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="K6" s="9" t="s">
+      <c r="K6" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="L6" s="9" t="s">
+      <c r="L6" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="M6" s="9" t="s">
+      <c r="M6" s="8" t="s">
         <v>29</v>
       </c>
     </row>
@@ -787,31 +784,31 @@
       <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="G7" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="H7" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="9" t="s">
+      <c r="I7" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="9" t="s">
+      <c r="J7" s="8" t="s">
         <v>8</v>
       </c>
       <c r="K7" s="5"/>
@@ -822,41 +819,41 @@
       <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="G8" s="8" t="s">
+      <c r="G8" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="H8" s="7" t="s">
+      <c r="H8" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I8" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="I8" s="5" t="s">
+      <c r="J8" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="J8" s="5" t="s">
+      <c r="K8" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="K8" s="6" t="s">
+      <c r="L8" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="L8" s="6" t="s">
+      <c r="M8" s="6" t="s">
         <v>37</v>
-      </c>
-      <c r="M8" s="6" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
